--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DABE2C0-F0F6-B643-A212-7F17B611BE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B511C-C274-8F48-8AA2-66627A9AD407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
@@ -989,15 +989,15 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ref="A16:C18" ca="1" si="0">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C16" s="1">
-        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" s="1" cm="1">
@@ -1009,11 +1009,11 @@
         <v>2.1776060433420898</v>
       </c>
       <c r="F16" s="1">
-        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ref="F16:G18" ca="1" si="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H16" s="1" cm="1">
@@ -1039,15 +1039,15 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C17" s="1">
-        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="1" cm="1">
@@ -1059,11 +1059,11 @@
         <v>4.3552120866841797</v>
       </c>
       <c r="F17" s="1">
-        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H17" s="1" cm="1">
@@ -1089,15 +1089,15 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C18" s="1">
-        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="1" cm="1">
@@ -1109,11 +1109,11 @@
         <v>6.5328181300262704</v>
       </c>
       <c r="F18" s="1">
-        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H18" s="1" cm="1">

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B511C-C274-8F48-8AA2-66627A9AD407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16415A3-C1A4-1944-BA3C-A722186688DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
+    <workbookView xWindow="6700" yWindow="5200" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
   <sheets>
     <sheet name="lr=3e-3 (120-30-1)" sheetId="38" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16415A3-C1A4-1944-BA3C-A722186688DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17E79F7-1D11-FE42-A1F9-645AFF1E4EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="5200" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="1" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
   <sheets>
     <sheet name="lr=3e-3 (120-30-1)" sheetId="38" r:id="rId1"/>
+    <sheet name="lr=3e-3 (120-30-1) gamma" sheetId="39" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>num_layers</t>
   </si>
@@ -474,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609EC4A8-3617-2D4D-B560-EF35FC73A967}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,4 +1141,676 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAD8024-F1B5-694D-ACA1-92566DCA46A7}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56048928571428502</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>56.103036165237398</v>
+      </c>
+      <c r="I2" s="1">
+        <v>85</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.49429464285714197</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>56.616492033004697</v>
+      </c>
+      <c r="I3" s="1">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.50056071428571403</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>56.550235748291001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.54070714285714205</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>57.405844688415499</v>
+      </c>
+      <c r="I5" s="1">
+        <v>84</v>
+      </c>
+      <c r="J5" s="1">
+        <v>300</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.63077499999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>56.487045526504502</v>
+      </c>
+      <c r="I6" s="1">
+        <v>85</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.57447857142857095</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>56.535124778747502</v>
+      </c>
+      <c r="I7" s="1">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.58262857142857105</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>56.784774541854802</v>
+      </c>
+      <c r="I8" s="1">
+        <v>90</v>
+      </c>
+      <c r="J8" s="1">
+        <v>200</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.61569464285714204</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>56.558512449264498</v>
+      </c>
+      <c r="I9" s="1">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1">
+        <v>300</v>
+      </c>
+      <c r="K9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.67867321428571403</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>56.219691991806002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>89</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.60026071428571404</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>56.948140621185303</v>
+      </c>
+      <c r="I11" s="1">
+        <v>89</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.60671249999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>57.0661458969116</v>
+      </c>
+      <c r="I12" s="1">
+        <v>94</v>
+      </c>
+      <c r="J12" s="1">
+        <v>200</v>
+      </c>
+      <c r="K12" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.67760178571428498</v>
+      </c>
+      <c r="E13" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>56.6490316390991</v>
+      </c>
+      <c r="I13" s="1">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1">
+        <v>300</v>
+      </c>
+      <c r="K13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="1">
+        <f>ROW()+1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" ref="A16:C18" ca="1" si="0">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>0.52401294642857077</v>
+      </c>
+      <c r="E16" s="1" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:G18" ca="1" si="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>56.668902158737147</v>
+      </c>
+      <c r="I16" s="1" cm="1">
+        <f t="array" aca="1" ref="I16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>87.25</v>
+      </c>
+      <c r="J16" s="1" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K16" s="1">
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L16" s="1" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>3.1845482577221237E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>0.600894196428571</v>
+      </c>
+      <c r="E17" s="1" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>56.591364324092829</v>
+      </c>
+      <c r="I17" s="1" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>88.75</v>
+      </c>
+      <c r="J17" s="1" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K17" s="1">
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>14.5</v>
+      </c>
+      <c r="L17" s="1" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>2.6729097361867488E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>0.64081205357142823</v>
+      </c>
+      <c r="E18" s="1" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>56.720752537250497</v>
+      </c>
+      <c r="I18" s="1" cm="1">
+        <f t="array" aca="1" ref="I18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K18" s="1">
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>18.5</v>
+      </c>
+      <c r="L18" s="1" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <v>4.3182336486932316E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>